--- a/Forwarding_ControlUnit/Test_with_IR.xlsx
+++ b/Forwarding_ControlUnit/Test_with_IR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6990A50-12A1-41C4-BF85-4CD8F3F986C5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71798FA-3958-44F1-AC87-B58107B7714D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="28">
   <si>
     <t>ADD R1, R2, R3</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>DATA IN MEM</t>
+  </si>
+  <si>
+    <t>forse errore nella struttura della sw, dove 1 e 4 dovrebbero essere scambiati</t>
   </si>
 </sst>
 </file>
@@ -444,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,6 +875,9 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
